--- a/biology/Zoologie/Coq_de_Lafayette/Coq_de_Lafayette.xlsx
+++ b/biology/Zoologie/Coq_de_Lafayette/Coq_de_Lafayette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gallus lafayettii
 Le Coq de Lafayette (Gallus lafayettii) est une espèce d'oiseaux de la famille des Phasianidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa crête est simple, de taille moyenne, rouge (avec du jaune en son centre) et légèrement dentelée. Son plumage est abondant et effilé, sa silhouette plus affinée que Gallus gallus. Les oreillons sont rouges et les tarses couleur chair.
 Cette espèce est très farouche et belliqueuse.
@@ -544,7 +558,9 @@
           <t>Dimorphisme sexuel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les phasianidés, le dimorphisme sexuel est très marqué : le coq est plus grand et vivement coloré avec des ergots sur les tarses, alors que la poule est plus petite et plus terne, afin de se camoufler lors de la couvaison.
 La crête est développée et colorée chez le coq, alors que celle de la poule est quasi inexistante.
@@ -577,7 +593,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La poule construit son nid dans un endroit isolé de ses prédateurs (souches d'arbres creux, terriers abandonnés, dans les broussailles et les buissons…), généralement au niveau du sol car les poussins sont nidifuges.
 Seule la poule se charge de la couvaison, durant environ 21 jours de 2 à 4 œufs couleur blanc sale, pondus bien sûr au rythme d'un par jour, mais les poussins « synchronisent » leur éclosion.
@@ -615,7 +633,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit exclusivement au Sri Lanka, dans des habitats variés, des zones arides ouvertes aux zones boisées et humides. Il s'adapte mal en captivité en Europe et est très rare en France.
 </t>
@@ -646,7 +666,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Herbivore, se nourrit principalement de graines.
 </t>
@@ -677,7 +699,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a originellement été décrite sous le nom Gallus lafayetii, mais son nom scientifique a ensuite été modifié en Gallus lafayettii.
 </t>
@@ -708,9 +732,11 @@
           <t>Mutant sans queue</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1868 le naturaliste anglais Charles Darwin a nié incorrectement l’existence d’un mutant sans queue, décrit en 1807 par le zoologiste néerlandais Coenraad Jacob Temminck[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1868 le naturaliste anglais Charles Darwin a nié incorrectement l’existence d’un mutant sans queue, décrit en 1807 par le zoologiste néerlandais Coenraad Jacob Temminck.
 </t>
         </is>
       </c>
